--- a/statics/formato-preinscritos.xlsx
+++ b/statics/formato-preinscritos.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jossue Irias\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Funval\proyectos\test\sigef\statics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615B200A-A3B4-4ECA-A0E8-BCB1867CBB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CD9654-484C-4695-AF54-BEDE4E58E3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Estado Civil</t>
   </si>
@@ -53,36 +58,6 @@
   </si>
   <si>
     <t>Estaca o distrito</t>
-  </si>
-  <si>
-    <t>vbnbvfgf fghgfdfg ghgfdfghg gfdfggf</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>jossue.irias94@hotmail.com</t>
-  </si>
-  <si>
-    <t>(+504) 33333333333 / (+504) 33333333333</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Estaca Choloma</t>
-  </si>
-  <si>
-    <t>Soltero(a)</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Asesor Comercial</t>
-  </si>
-  <si>
-    <t>26/09/2025</t>
   </si>
   <si>
     <t>Listado de Preinscripciones Pendientes</t>
@@ -92,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,9 +162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,11 +169,232 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -228,224 +421,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -528,19 +503,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1637689-29CE-4E51-AE5C-4F8B04C5B35A}" name="Tabla1" displayName="Tabla1" ref="B9:L20" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1637689-29CE-4E51-AE5C-4F8B04C5B35A}" name="Tabla1" displayName="Tabla1" ref="B9:L20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078D4E72-1BB7-4150-88DD-3CC19F415798}" name="Nombre" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{6C0E7F55-0CDB-48FC-8FD8-C567BBBE22D1}" name="Genero" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{001B9C52-D871-4EDB-B846-96CC9E3DFCEB}" name="Edad" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{DD4E09AE-9045-43B9-8700-BF67DE932451}" name="Correo" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{F80D090D-B30C-4ECE-BF0A-875660B0F6CF}" name="Número" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{13F1BA37-568A-400B-A9F5-D258584376B5}" name="País" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{C4B12CEF-719E-4FAA-99F5-816B854A213A}" name="Estaca o distrito" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B7255DE7-4C2D-4B41-96F3-DC62D6FACC6E}" name="Estado Civil" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{1C1221FB-7D8F-41C6-BF84-17C355899AC5}" name="Sirvió misión" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{B8C3F54B-5DD2-4520-B9B2-77B6CCFE02F2}" name="Curso" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{ADB2D1F3-1FA7-46DF-8A7B-3478E6CC0427}" name="Fecha" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{078D4E72-1BB7-4150-88DD-3CC19F415798}" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6C0E7F55-0CDB-48FC-8FD8-C567BBBE22D1}" name="Genero" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{001B9C52-D871-4EDB-B846-96CC9E3DFCEB}" name="Edad" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DD4E09AE-9045-43B9-8700-BF67DE932451}" name="Correo" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F80D090D-B30C-4ECE-BF0A-875660B0F6CF}" name="Número" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{13F1BA37-568A-400B-A9F5-D258584376B5}" name="País" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C4B12CEF-719E-4FAA-99F5-816B854A213A}" name="Estaca o distrito" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B7255DE7-4C2D-4B41-96F3-DC62D6FACC6E}" name="Estado Civil" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{1C1221FB-7D8F-41C6-BF84-17C355899AC5}" name="Sirvió misión" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{B8C3F54B-5DD2-4520-B9B2-77B6CCFE02F2}" name="Curso" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{ADB2D1F3-1FA7-46DF-8A7B-3478E6CC0427}" name="Fecha" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -870,242 +845,207 @@
   <dimension ref="A8:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="5" t="s">
+    <row r="8" spans="2:13" ht="21" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" ht="21" customHeight="1">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+    <row r="11" spans="2:13">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
